--- a/input/images/data-dictionary/CodexRTDataDictionary-STU2.xlsx
+++ b/input/images/data-dictionary/CodexRTDataDictionary-STU2.xlsx
@@ -69,7 +69,7 @@
     <t>Data dictionary generated date</t>
   </si>
   <si>
-    <t>3/15/2024, 4:42:28 PM</t>
+    <t>3/15/2024, 5:04:12 PM</t>
   </si>
   <si>
     <t>General notes</t>
@@ -3001,7 +3001,7 @@
     <t>Code Description</t>
   </si>
   <si>
-    <t>SNOMED CT</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>1254776009</t>
@@ -8251,16 +8251,16 @@
     <t>Trismus</t>
   </si>
   <si>
+    <t>1287742003</t>
+  </si>
+  <si>
+    <t>Radiotherapy (procedure)</t>
+  </si>
+  <si>
     <t>108290001</t>
   </si>
   <si>
     <t>Radiation oncology AND/OR radiotherapy (procedure)</t>
-  </si>
-  <si>
-    <t>1287742003</t>
-  </si>
-  <si>
-    <t>Radiotherapy (procedure)</t>
   </si>
   <si>
     <t>MeV</t>
@@ -36728,16 +36728,16 @@
         <v>691</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
@@ -36745,16 +36745,16 @@
         <v>691</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
@@ -36762,16 +36762,16 @@
         <v>691</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
@@ -36785,10 +36785,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
@@ -36796,16 +36796,16 @@
         <v>691</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
@@ -36813,16 +36813,16 @@
         <v>691</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
@@ -36830,16 +36830,16 @@
         <v>691</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
@@ -51248,7 +51248,7 @@
         <v>701</v>
       </c>
       <c r="B890" s="17" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="C890" s="18" t="s">
         <v>0</v>
@@ -51265,7 +51265,7 @@
         <v>701</v>
       </c>
       <c r="B891" s="17" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
       <c r="C891" s="18" t="s">
         <v>0</v>

--- a/input/images/data-dictionary/CodexRTDataDictionary-STU2.xlsx
+++ b/input/images/data-dictionary/CodexRTDataDictionary-STU2.xlsx
@@ -78,7 +78,7 @@
     <t>Data dictionary generated date</t>
   </si>
   <si>
-    <t>9/3/2024, 12:31:25 PM</t>
+    <t>9/6/2024, 2:29:44 PM</t>
   </si>
   <si>
     <t>General notes</t>
